--- a/6.爬虫项目源码/11.淘宝/filename.xlsx
+++ b/6.爬虫项目源码/11.淘宝/filename.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="157">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,423 @@
     <t>time</t>
   </si>
   <si>
+    <t>春秋男皮裤 薄款防水防风休闲裤 大码 特价</t>
+  </si>
+  <si>
+    <t>鱼鱼屋服装店88</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>手机专享价</t>
+  </si>
+  <si>
+    <t>嘉兴</t>
+  </si>
+  <si>
+    <t>https://img.alicdn.com/imgextra/i1/151590318358848133/TB2qR78cQ1M.eBjSZPiXXawfpXa_!!0-saturn_solar.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>YOA秋冬男装皮裤 韩版修身休闲小脚裤男士长裤子机车加绒皮裤男潮</t>
+  </si>
+  <si>
+    <t>yoa旗舰店</t>
+  </si>
+  <si>
+    <t>6265</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>限时特惠</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>http://g.search.alicdn.com/img/bao/uploaded/i4/i4/TB1qSrbOVXXXXcQXFXXXXXXXXXX_!!0-item_pic.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>昊吉秋冬中老年男士皮裤加厚加绒老人男大码摩托车皮裤男加绒加厚</t>
+  </si>
+  <si>
+    <t>昊吉欣派专卖店</t>
+  </si>
+  <si>
+    <t>2660</t>
+  </si>
+  <si>
+    <t>暖心促销</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i1/TB13YHOKXXXXXbaXVXXXXXXXXXX_!!0-item_pic.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>冬季男士皮裤男加绒中老年加厚保暖摩托机车宽松直筒裤PU高腰防寒</t>
+  </si>
+  <si>
+    <t>高大上8899</t>
+  </si>
+  <si>
+    <t>2678</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>特价促销</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i2/2214817789/TB2SiwRaKLyQeBjy1XaXXcexFXa_!!2214817789.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>红杉龙秋冬海宁头层牛皮修身夜店小脚紧身男士商务真皮皮裤男</t>
+  </si>
+  <si>
+    <t>红杉龙旗舰店</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>2680.00</t>
+  </si>
+  <si>
+    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i3/1806772735/TB2OA2Wal0kpuFjy1zdXXXuUVXa_!!1806772735.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>真皮皮裤男牛皮冬季加绒加厚宽松 摩托车中老年羊皮裤男士皮裤</t>
+  </si>
+  <si>
+    <t>返噗归真</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>298.00</t>
+  </si>
+  <si>
+    <t>598.00</t>
+  </si>
+  <si>
+    <t>厂家直销价</t>
+  </si>
+  <si>
+    <t>石家庄</t>
+  </si>
+  <si>
+    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i4/72447326/TB2p_TzakfA11Bjy0FcXXc4cXXa_!!72447326.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>男士冬季防风pu机车皮裤男摩托车中老年加绒加厚保暖宽松大码高腰</t>
+  </si>
+  <si>
+    <t>tangyunsong11</t>
+  </si>
+  <si>
+    <t>3231</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>收藏送袜子</t>
+  </si>
+  <si>
+    <t>温州</t>
+  </si>
+  <si>
+    <t>http://g.search.alicdn.com/img/bao/uploaded/i4/i3/726067331/TB2OKLvcraI.eBjy1XdXXcoqXXa_!!726067331.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>2016秋冬新款男士皮裤 韩版修身机车潮流紧身小脚PU加绒加厚皮裤</t>
+  </si>
+  <si>
+    <t>百汇都旗舰店</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>354.00</t>
+  </si>
+  <si>
+    <t>限时促销</t>
+  </si>
+  <si>
+    <t>http://g.search.alicdn.com/img/bao/uploaded/i4/i2/TB1u1aDLpXXXXcxXVXXXXXXXXXX_!!0-item_pic.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>2016新款热卖冬季黑色海宁纯色保暖锥形山羊皮裤男士长裤真皮裤子</t>
+  </si>
+  <si>
+    <t>wuyanling1009</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>238.00</t>
+  </si>
+  <si>
+    <t>258.00</t>
+  </si>
+  <si>
+    <t>卖家促销</t>
+  </si>
+  <si>
+    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i3/TB1lbVOJXXXXXcAXpXXXXXXXXXX_!!0-item_pic.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>秋冬中老年男士皮裤加厚加绒机车皮裤男大码摩托车PU中年皮裤男</t>
+  </si>
+  <si>
+    <t>庄雅屋</t>
+  </si>
+  <si>
+    <t>2738</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>398.00</t>
+  </si>
+  <si>
+    <t>爆款特卖</t>
+  </si>
+  <si>
+    <t>http://g.search.alicdn.com/img/bao/uploaded/i4/i1/TB1Slf1NVXXXXXPXXXXXXXXXXXX_!!0-item_pic.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>男士皮裤秋冬韩版修身款小脚骷髅头加绒加厚摩托车皮裤子男潮冬季</t>
+  </si>
+  <si>
+    <t>entong旗舰店</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>268.00</t>
+  </si>
+  <si>
+    <t>年终盛典</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i2/692898537/TB2rVqXcYOJ.eBjy1XaXXbNupXa_!!692898537.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>秋冬牛皮真皮皮裤男修身小脚韩版机车骑行哈雷摩托车防风加厚男裤</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>淘金币价</t>
+  </si>
+  <si>
+    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i1/1806772735/TB2zmArahdkpuFjy0FbXXaNnpXa_!!1806772735.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>唐森男士皮裤小脚裤男修身加绒黑色长裤潮机车裤韩版休闲裤子男潮</t>
+  </si>
+  <si>
+    <t>ts唐森旗舰店</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>499.00</t>
+  </si>
+  <si>
+    <t>买2减50</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i3/1676199885/TB2zU_ke71M.eBjSZFFXXc3vVXa_!!1676199885.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>男皮裤男士皮裤防风裤男装加厚加绒保暖秋冬装直筒大码长裤子促销</t>
+  </si>
+  <si>
+    <t>二月辉煌</t>
+  </si>
+  <si>
+    <t>6790</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>还有5分钟</t>
+  </si>
+  <si>
+    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i2/TB1.OHTIpXXXXccXVXXXXXXXXXX_!!0-item_pic.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>秋冬真皮皮裤男头层牛皮紧身修身保暖铅笔摩托机车韩版休闲长裤</t>
+  </si>
+  <si>
+    <t>言炎衣吧</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>988.00</t>
+  </si>
+  <si>
+    <t>2780.00</t>
+  </si>
+  <si>
+    <t>已验证真皮</t>
+  </si>
+  <si>
+    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i1/2486276644/TB2_rKYXrQc61BjSZFrXXcnOpXa_!!2486276644.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>真皮皮裤男中老年羊剪绒皮毛一体棉裤男冬季长裤加绒加厚大码皮裤</t>
+  </si>
+  <si>
+    <t>老邹皮草</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>596.00</t>
+  </si>
+  <si>
+    <t>辽阳</t>
+  </si>
+  <si>
+    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i5/TB1eC_MMVXXXXcQXFXXYXGcGpXX_M2.SS2_60x60.jpg</t>
+  </si>
+  <si>
+    <t>真皮裤子男 韩版修身哈雷机车款皮裤加绒加厚真绵羊皮小脚裤防风</t>
+  </si>
+  <si>
+    <t>aresjie7</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i3/1084178267/TB2kKQgXq9I.eBjy0FeXXXqwFXa_!!1084178267.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>真皮皮裤男清仓牛皮真皮裤机车摩托车修身男皮裤头层直筒皮裤</t>
+  </si>
+  <si>
+    <t>精品皮草商城1987</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>1163.00</t>
+  </si>
+  <si>
+    <t>工厂直销价</t>
+  </si>
+  <si>
+    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i2/2557948400/TB25JseaY1J.eBjSspnXXbUeXXa_!!2557948400.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>2106新款男士牛皮裤真皮皮裤男中老牛皮裤机车男士修身皮裤直筒</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>899.00</t>
+  </si>
+  <si>
+    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i2/2557948400/TB2zNc5a4eK.eBjSZFuXXcT4FXa_!!2557948400.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>真皮皮裤中老年大码羊皮裤子皮毛一体活里活面男女加厚羊毛棉裤冬</t>
+  </si>
+  <si>
+    <t>帝凰皮草</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>639.00</t>
+  </si>
+  <si>
+    <t>新款促销</t>
+  </si>
+  <si>
+    <t>保定</t>
+  </si>
+  <si>
+    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i3/2141389067/TB2oWLNaai5V1BjSszgXXbHLpXa_!!2141389067.jpg_60x60.jpg</t>
+  </si>
+  <si>
+    <t>2016冬季男装PU皮裤潮流修身加绒保暖小脚束脚裤男士韩版显瘦长裤</t>
+  </si>
+  <si>
+    <t>拼羊旗舰店</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>收藏先发货</t>
+  </si>
+  <si>
+    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i1/1718043947/TB2ODPQdYeI.eBjSspkXXaXqVXa_!!1718043947.jpg_60x60.jpg</t>
+  </si>
+  <si>
     <t>秋冬新款潮男韩版紧身个性小脚皮裤男夜店男</t>
   </si>
   <si>
@@ -58,430 +475,16 @@
     <t>238</t>
   </si>
   <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>298.00</t>
-  </si>
-  <si>
-    <t>手机专享价</t>
-  </si>
-  <si>
     <t>金华</t>
   </si>
   <si>
     <t>https://img.alicdn.com/imgextra/i2/19497055517341818/TB2tfukaVXXXXcoXXXXXXXXXXXX_!!27749497-0-saturn_solar.jpg_60x60.jpg</t>
   </si>
   <si>
-    <t>YOA秋冬男装皮裤 韩版修身休闲小脚裤男士长裤子机车加绒皮裤男潮</t>
-  </si>
-  <si>
-    <t>yoa旗舰店</t>
-  </si>
-  <si>
-    <t>6265</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>限时特惠</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i4/TB1qSrbOVXXXXcQXFXXXXXXXXXX_!!0-item_pic.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>冬季男士皮裤男加绒中老年加厚保暖摩托机车宽松直筒裤PU高腰防寒</t>
-  </si>
-  <si>
-    <t>高大上8899</t>
-  </si>
-  <si>
-    <t>2678</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>特价促销</t>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>http://g.search.alicdn.com/img/bao/uploaded/i4/i2/2214817789/TB2SiwRaKLyQeBjy1XaXXcexFXa_!!2214817789.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>昊吉秋冬中老年男士皮裤加厚加绒老人男大码摩托车皮裤男加绒加厚</t>
-  </si>
-  <si>
-    <t>昊吉欣派专卖店</t>
-  </si>
-  <si>
-    <t>2660</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>299.00</t>
-  </si>
-  <si>
-    <t>暖心促销</t>
-  </si>
-  <si>
-    <t>郑州</t>
-  </si>
-  <si>
-    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i1/TB13YHOKXXXXXbaXVXXXXXXXXXX_!!0-item_pic.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>真皮皮裤男牛皮冬季加绒加厚宽松 摩托车中老年羊皮裤男士皮裤</t>
-  </si>
-  <si>
-    <t>返噗归真</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>598.00</t>
-  </si>
-  <si>
-    <t>厂家直销价</t>
-  </si>
-  <si>
-    <t>石家庄</t>
-  </si>
-  <si>
-    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i4/72447326/TB2p_TzakfA11Bjy0FcXXc4cXXa_!!72447326.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>男士冬季防风pu机车皮裤男摩托车中老年加绒加厚保暖宽松大码高腰</t>
-  </si>
-  <si>
-    <t>tangyunsong11</t>
-  </si>
-  <si>
-    <t>3231</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>收藏送袜子</t>
-  </si>
-  <si>
-    <t>温州</t>
-  </si>
-  <si>
-    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i3/726067331/TB2OKLvcraI.eBjy1XdXXcoqXXa_!!726067331.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>红杉龙秋冬海宁头层牛皮修身夜店小脚紧身男士商务真皮皮裤男</t>
-  </si>
-  <si>
-    <t>红杉龙旗舰店</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>1380.00</t>
-  </si>
-  <si>
-    <t>2680.00</t>
-  </si>
-  <si>
-    <t>嘉兴</t>
-  </si>
-  <si>
-    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i3/1806772735/TB2OA2Wal0kpuFjy1zdXXXuUVXa_!!1806772735.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>2016秋冬新款男士皮裤 韩版修身机车潮流紧身小脚PU加绒加厚皮裤</t>
-  </si>
-  <si>
-    <t>百汇都旗舰店</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>354.00</t>
-  </si>
-  <si>
-    <t>限时促销</t>
-  </si>
-  <si>
-    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i2/TB1u1aDLpXXXXcxXVXXXXXXXXXX_!!0-item_pic.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>秋冬中老年男士皮裤加厚加绒机车皮裤男大码摩托车PU中年皮裤男</t>
-  </si>
-  <si>
-    <t>庄雅屋</t>
-  </si>
-  <si>
-    <t>2738</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>398.00</t>
-  </si>
-  <si>
-    <t>爆款特卖</t>
-  </si>
-  <si>
-    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i1/TB1Slf1NVXXXXXPXXXXXXXXXXXX_!!0-item_pic.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>秋冬真皮皮裤男头层牛皮紧身修身保暖铅笔摩托机车韩版休闲长裤</t>
-  </si>
-  <si>
-    <t>言炎衣吧</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>988.00</t>
-  </si>
-  <si>
-    <t>2780.00</t>
-  </si>
-  <si>
-    <t>已验证真皮</t>
-  </si>
-  <si>
-    <t>http://g.search.alicdn.com/img/bao/uploaded/i4/i1/2486276644/TB2_rKYXrQc61BjSZFrXXcnOpXa_!!2486276644.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>2016新款热卖冬季黑色海宁纯色保暖锥形山羊皮裤男士长裤真皮裤子</t>
-  </si>
-  <si>
-    <t>wuyanling1009</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>238.00</t>
-  </si>
-  <si>
-    <t>258.00</t>
-  </si>
-  <si>
-    <t>卖家促销</t>
-  </si>
-  <si>
-    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i3/TB1lbVOJXXXXXcAXpXXXXXXXXXX_!!0-item_pic.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>男皮裤男士皮裤防风裤男装加厚加绒保暖秋冬装直筒大码长裤子促销</t>
-  </si>
-  <si>
-    <t>二月辉煌</t>
-  </si>
-  <si>
-    <t>6790</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>还有5分钟</t>
-  </si>
-  <si>
-    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i2/TB1.OHTIpXXXXccXVXXXXXXXXXX_!!0-item_pic.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>男士皮裤秋冬韩版修身款小脚骷髅头加绒加厚摩托车皮裤子男潮冬季</t>
-  </si>
-  <si>
-    <t>entong旗舰店</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>268.00</t>
-  </si>
-  <si>
-    <t>年终盛典</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i2/692898537/TB2rVqXcYOJ.eBjy1XaXXbNupXa_!!692898537.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>真皮裤子男 韩版修身哈雷机车款皮裤加绒加厚真绵羊皮小脚裤防风</t>
-  </si>
-  <si>
-    <t>aresjie7</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>540.00</t>
-  </si>
-  <si>
-    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i3/1084178267/TB2kKQgXq9I.eBjy0FeXXXqwFXa_!!1084178267.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>秋冬牛皮真皮皮裤男修身小脚韩版机车骑行哈雷摩托车防风加厚男裤</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>1280.00</t>
-  </si>
-  <si>
-    <t>淘金币价</t>
-  </si>
-  <si>
-    <t>http://g.search.alicdn.com/img/bao/uploaded/i4/i1/1806772735/TB2zmArahdkpuFjy0FbXXaNnpXa_!!1806772735.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>真皮皮裤中老年大码羊皮裤子皮毛一体活里活面男女加厚羊毛棉裤冬</t>
-  </si>
-  <si>
-    <t>帝凰皮草</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>205.00</t>
-  </si>
-  <si>
-    <t>639.00</t>
-  </si>
-  <si>
-    <t>新款促销</t>
-  </si>
-  <si>
-    <t>保定</t>
-  </si>
-  <si>
-    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i3/2141389067/TB2oWLNaai5V1BjSszgXXbHLpXa_!!2141389067.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>真皮羊毛皮毛一体裤子皮男女冬加绒加厚棉裤保暖大码中老年羊皮裤</t>
-  </si>
-  <si>
-    <t>我的黑店007</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>516.00</t>
-  </si>
-  <si>
-    <t>淘小二推荐</t>
-  </si>
-  <si>
-    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i4/340756532/TB2t5R9cOGO.eBjSZFEXXcy9VXa_!!340756532.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>2106新款男士牛皮裤真皮皮裤男中老牛皮裤机车男士修身皮裤直筒</t>
-  </si>
-  <si>
-    <t>精品皮草商城1987</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>899.00</t>
-  </si>
-  <si>
-    <t>工厂直销价</t>
-  </si>
-  <si>
-    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i2/2557948400/TB2zNc5a4eK.eBjSZFuXXcT4FXa_!!2557948400.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>真皮裤子男士中老年宽松加绒加厚保暖防风摩托车牛皮皮裤冬季大码</t>
-  </si>
-  <si>
-    <t>杭州合纵连横</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>1030.00</t>
-  </si>
-  <si>
-    <t>优质好货</t>
-  </si>
-  <si>
-    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i4/2138075862/TB2TgwUXw1I.eBjSszeXXc2hpXa_!!2138075862.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>真皮皮裤男清仓牛皮真皮裤机车摩托车修身男皮裤头层直筒皮裤</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>1163.00</t>
-  </si>
-  <si>
-    <t>http://g.search1.alicdn.com/img/bao/uploaded/i4/i2/2557948400/TB25JseaY1J.eBjSspnXXbUeXXa_!!2557948400.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>男皮裤加绒加厚保暖冬季高腰防水防风摩托加肥加大宽松男士皮裤</t>
-  </si>
-  <si>
-    <t>286157944小</t>
-  </si>
-  <si>
-    <t>2459</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>288.00</t>
-  </si>
-  <si>
-    <t>收藏送手套</t>
-  </si>
-  <si>
-    <t>http://g.search2.alicdn.com/img/bao/uploaded/i4/i4/669210099/TB2IFCUXngc61BjSZFzXXXH2FXa_!!669210099.jpg_60x60.jpg</t>
-  </si>
-  <si>
     <t>2016特价海宁 男士真皮保暖皮裤 山羊皮裤子</t>
   </si>
   <si>
     <t>https://img.alicdn.com/imgextra/i4/129050116152910160/TB2buJWeFXXXXa2XpXXXXXXXXXX_!!14582905-0-saturn_solar.jpg_60x60.jpg</t>
-  </si>
-  <si>
-    <t>秋冬真皮皮裤男头层牛皮修身摩托机车韩版</t>
-  </si>
-  <si>
-    <t>https://img.alicdn.com/imgextra/i1/119700312722523329/TB2RSH1bLOM.eBjSZFqXXculVXa_!!0-saturn_solar.jpg_60x60.jpg</t>
   </si>
 </sst>
 </file>
@@ -935,19 +938,19 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -955,28 +958,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -984,28 +987,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1013,28 +1016,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1042,28 +1045,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1071,28 +1074,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1100,28 +1103,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
         <v>70</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1129,28 +1132,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>79</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1158,28 +1161,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>85</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>86</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>87</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>88</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="H12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1187,28 +1190,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
         <v>91</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>92</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
         <v>93</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1216,28 +1219,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
         <v>97</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
         <v>98</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>99</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>100</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H14" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1245,25 +1248,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
         <v>104</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>105</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
         <v>106</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1271,10 +1277,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
         <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
       </c>
       <c r="D16" t="s">
         <v>110</v>
@@ -1283,16 +1289,16 @@
         <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1300,28 +1306,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
         <v>118</v>
       </c>
       <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" t="s">
         <v>119</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1329,28 +1335,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
         <v>122</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>123</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>124</v>
       </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
       <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1358,28 +1361,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
         <v>128</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>130</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1387,28 +1390,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" t="s">
         <v>135</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1416,25 +1419,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
         <v>141</v>
       </c>
-      <c r="C21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>142</v>
       </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>144</v>
@@ -1454,19 +1457,19 @@
         <v>147</v>
       </c>
       <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
         <v>148</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="G22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1474,28 +1477,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" t="s">
         <v>152</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>85</v>
       </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" t="s">
-        <v>87</v>
-      </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1503,28 +1506,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:10">
